--- a/switch 1 Ports.xlsx
+++ b/switch 1 Ports.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780A0845-E11C-4628-BCBD-0F8F9B092892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +37,16 @@
     <t>all</t>
   </si>
   <si>
-    <t>100:200</t>
-  </si>
-  <si>
     <t>Access</t>
+  </si>
+  <si>
+    <t>100-200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,21 +372,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -396,7 +397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -407,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -415,81 +416,81 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <v>15</v>
